--- a/资料库/怪物资料库【PC】.xlsx
+++ b/资料库/怪物资料库【PC】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="怪物V2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>情报层级</t>
   </si>
@@ -191,6 +191,9 @@
     <t>愤怒硬皮</t>
   </si>
   <si>
+    <t>麻痹武器II</t>
+  </si>
+  <si>
     <t>欲望飞扑</t>
   </si>
   <si>
@@ -218,10 +221,98 @@
     <t>限制</t>
   </si>
   <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
     <t>分数</t>
+  </si>
+  <si>
+    <t>攻击特性</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>攻击造成伤害时，令目标在3回合内每回合增加15点麻痹毒素</t>
+  </si>
+  <si>
+    <t>特殊能力</t>
+  </si>
+  <si>
+    <t>人形角色</t>
+  </si>
+  <si>
+    <t>单敌</t>
+  </si>
+  <si>
+    <t>1SP</t>
+  </si>
+  <si>
+    <t>对单敌造成束缚I。如果束缚成功的话，每回合增加10点媚药毒素</t>
+  </si>
+  <si>
+    <t>通用特性</t>
+  </si>
+  <si>
+    <t>自身/敌人</t>
+  </si>
+  <si>
+    <t>‘-能够创造【坑道】地形，活动区和巢穴都会拥有这个地形
+-可以通过【坑道】移动和逃跑，到达没有走廊直接连接的地点
+-【坑道】可以作为陷阱，在被触发时让队伍中1人遭到V和A的侵犯
+-添加特殊的夜袭事件，绕过结界</t>
+  </si>
+  <si>
+    <t>防御特性</t>
+  </si>
+  <si>
+    <t>领主</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>’-增加4坚韧的最大生命力
+-在损失所有生命力时倒地而非直接死亡
+-在倒地后,如果在3回合内没有受到1坚韧的伤害或遭到处决则于开幕恢复一半的生命力并重振旗鼓(每次完全恢复生命力只会触发1次)</t>
+  </si>
+  <si>
+    <t>攻击造成伤害时，令目标在4回合内每回合增加30点麻痹毒素</t>
+  </si>
+  <si>
+    <t>‘-在承受达到1坚韧的伤害时，获得2的天然护甲
+-在遭到眩晕等失能类负面效果影响时，解除天然护甲效果
+-在天然效果生效时，针对自身的处决必然失败</t>
+  </si>
+  <si>
+    <t>突进，对射程内的单敌造成压制。如果限制成功，立刻破坏目标的上衣和裙装，造成击倒</t>
+  </si>
+  <si>
+    <t>跳跃，对射程内的单敌造成拘束。如果限制成功，立刻开始M侵犯</t>
+  </si>
+  <si>
+    <t>对武器攻击范围内的单敌发起1次会造成3次伤害的攻击</t>
+  </si>
+  <si>
+    <t>跳跃，对射程内的单敌进行1次攻击。如果生命力低于一半则进行处决</t>
   </si>
 </sst>
 </file>
@@ -229,10 +320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -257,10 +348,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,16 +363,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,62 +433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,9 +447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +461,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -396,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +678,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,6 +706,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -616,21 +742,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,36 +764,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -692,148 +783,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,15 +1259,17 @@
   <sheetPr/>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="13" width="9" style="1"/>
     <col min="14" max="14" width="10.75" style="1" customWidth="1"/>
-    <col min="15" max="18" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1484,17 +1577,20 @@
       <c r="O15" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="P15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1506,43 +1602,410 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="71.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="71.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:11">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D6 D7 D8 D4:D5 D9:D11">
+      <formula1>"通用特性,攻击特性,防御特性,特殊能力"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/资料库/怪物资料库【PC】.xlsx
+++ b/资料库/怪物资料库【PC】.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
   <si>
     <t>情报层级</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>生命力</t>
+  </si>
+  <si>
+    <t>技能力</t>
   </si>
   <si>
     <t>坚韧</t>
@@ -299,8 +302,8 @@
   </si>
   <si>
     <t>‘-在承受达到1坚韧的伤害时，获得2的天然护甲
--在遭到眩晕等失能类负面效果影响时，解除天然护甲效果
--在天然效果生效时，针对自身的处决必然失败</t>
+-在遭到眩晕等失能类负面效果影响时，解除天然护甲效果。失去护甲的当前回合不会重新获得天然护甲
+-在天然护甲效果生效时，针对自身的处决必然失败</t>
   </si>
   <si>
     <t>突进，对射程内的单敌造成压制。如果限制成功，立刻破坏目标的上衣和裙装，造成击倒</t>
@@ -322,8 +325,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -348,11 +351,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,7 +382,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,31 +428,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,8 +449,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,30 +459,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +467,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,43 +490,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,139 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +681,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,6 +756,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -719,65 +781,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,145 +789,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,23 +1260,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="10.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,233 +1349,349 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
+      <c r="H2" s="1">
+        <f>(J2*20)+((D2-1)*20)</f>
+        <v>20</v>
+      </c>
       <c r="I2" s="1">
+        <f>K2*1+M2*1</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H15" si="0">(J3*20)+((D3-1)*20)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I15" si="1">K3*1+M3*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:9">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
       </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="I15" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
       </c>
       <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>57</v>
@@ -1580,17 +1699,20 @@
       <c r="P15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +1726,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1619,249 +1741,249 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -1870,30 +1992,30 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -1902,62 +2024,62 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1966,38 +2088,38 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/怪物资料库【PC】.xlsx
+++ b/资料库/怪物资料库【PC】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="怪物V2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>情报层级</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>堕落</t>
+  </si>
+  <si>
+    <t>普通武器</t>
+  </si>
+  <si>
+    <t>粗制护甲</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>虚张声势</t>
+  </si>
+  <si>
+    <t>捕获擒拿</t>
+  </si>
+  <si>
+    <t>媚药手雷</t>
   </si>
   <si>
     <t>史莱姆</t>
@@ -323,10 +341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -338,6 +356,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -345,7 +385,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,31 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,7 +422,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,60 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -474,10 +484,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -490,12 +508,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,169 +592,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,39 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +743,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -781,153 +784,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1474,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1487,13 +1505,45 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1501,10 +1551,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1523,10 +1573,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1545,10 +1595,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1567,10 +1617,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1589,10 +1639,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1611,10 +1661,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1650,10 +1700,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -1662,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1694,25 +1744,25 @@
         <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1776,7 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1741,40 +1791,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -1785,28 +1835,28 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1817,28 +1867,28 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:11">
@@ -1849,141 +1899,141 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="54" spans="2:11">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -1992,30 +2042,30 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -2024,62 +2074,62 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2088,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:2">

--- a/资料库/怪物资料库【PC】.xlsx
+++ b/资料库/怪物资料库【PC】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="怪物V2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>情报层级</t>
   </si>
@@ -141,15 +141,6 @@
   </si>
   <si>
     <t>堕落</t>
-  </si>
-  <si>
-    <t>普通武器</t>
-  </si>
-  <si>
-    <t>粗制护甲</t>
-  </si>
-  <si>
-    <t>普通</t>
   </si>
   <si>
     <t>虚张声势</t>
@@ -1280,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1505,45 +1496,22 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1551,10 +1519,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1573,10 +1541,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1595,10 +1563,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1617,10 +1585,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1639,10 +1607,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1661,10 +1629,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1700,10 +1668,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -1712,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1744,25 +1712,25 @@
         <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1776,8 +1744,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1791,40 +1759,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -1835,28 +1803,28 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1867,28 +1835,28 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:11">
@@ -1899,141 +1867,141 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:11">
       <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="54" spans="2:11">
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -2042,30 +2010,30 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -2074,62 +2042,62 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2138,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:2">
